--- a/Payments_Refunds/outputs/refund_recon_20251216_141501/refund_reconciliation_summary.xlsx
+++ b/Payments_Refunds/outputs/refund_recon_20251216_141501/refund_reconciliation_summary.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Payments Reconciliation\Payments_Refunds\outputs\refund_recon_20251216_141501\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,8 +42,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +56,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,20 +102,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -147,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +205,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,14 +416,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,18 +446,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>542</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>13781090.184</v>
       </c>
       <c r="D2">
-        <v>96.76033210332103</v>
+        <v>96.760332103321034</v>
       </c>
       <c r="E2">
         <v>1.024686346863469</v>
